--- a/biology/Histoire de la zoologie et de la botanique/Osbert_Salvin/Osbert_Salvin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Osbert_Salvin/Osbert_Salvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osbert Salvin est un ornithologue et herpétologiste britannique, né le 25 février 1835 à Finchley dans le Middlesex et mort le 1er juin 1898 à Fernhurst dans le Sussex de l'Ouest.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est lié à celui de son meilleur ami, Frederick DuCane Godman (1834-1919), également ornithologue. Ils se rencontrent à Cambridge où Salvin étudie les mathématiques et Godman le droit. Ils décident alors de se vouer uniquement à l’étude des oiseaux.
 Salvin, le plus souvent avec Godman, fait de très nombreux voyages dans le nord de l’Afrique, en Amérique centrale (1857-1860, 1861-1863, 1873-1874) et dans de nombreux pays européens.
@@ -549,7 +563,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1887 : avec Frederick DuCane Godman, Biologia Centrali-Americana. Insecta. Lepidoptera-Rhopalocera. Duleau &amp; Co., Bernard Quartrich (Londres), 2, 1–112, pls 48–56.</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Moucherolle de Salvin (Aphanotriccus capitalis) (Salvin, 1865)
 Bolitoglossa salvinii (Gray, 1868)</t>
